--- a/Expenditures-Per-Pupil/Expenditures-Per-Pupil-Total-Expenditures-Summary-Breakdown-by-School-Year-Edited.xlsx
+++ b/Expenditures-Per-Pupil/Expenditures-Per-Pupil-Total-Expenditures-Summary-Breakdown-by-School-Year-Edited.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Data-Farm\Kansas\KS-Dept-Education\School-Spending\Expenditures-Per-Pupil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efg\Desktop\Expenditures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1309D24-B693-4B92-B10B-91E3DEEF28E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D2C51E-58C3-465C-9F3A-9B99EC6CB683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="1368" windowWidth="17064" windowHeight="23160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28416" yWindow="6216" windowWidth="15612" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,6 +86,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -132,6 +135,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,16 +481,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -493,16 +500,16 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -513,16 +520,16 @@
       <c r="B2" s="3">
         <v>446596</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>601.45669688040198</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>776.89965651282137</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>10805.276010085179</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <v>12183.6323634784</v>
       </c>
     </row>
@@ -533,16 +540,16 @@
       <c r="B3" s="3">
         <v>447237.7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>700.24000660051684</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>816.19277176320327</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>11140.351034807671</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>12656.783813171391</v>
       </c>
     </row>
@@ -553,16 +560,16 @@
       <c r="B4" s="3">
         <v>450774.6</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>650.71368484382219</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>907.32486701779555</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>10771.604686688201</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>12329.643238549819</v>
       </c>
     </row>
@@ -573,16 +580,16 @@
       <c r="B5" s="3">
         <v>453981.9</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>570.34707330842923</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>968.65580764343258</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>10745.88497030388</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>12284.88785125574</v>
       </c>
     </row>
@@ -593,16 +600,16 @@
       <c r="B6" s="3">
         <v>456000.5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>652.16174982264272</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>988.16756121977926</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>11012.568163850699</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>12652.89747489312</v>
       </c>
     </row>
@@ -613,16 +620,16 @@
       <c r="B7" s="3">
         <v>457896.6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>632.0313079415746</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>1025.6437348519289</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>11118.064877529119</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>12775.73992032262</v>
       </c>
     </row>
@@ -633,16 +640,16 @@
       <c r="B8" s="3">
         <v>461088.3</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>633.93206897680977</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>1014.342931711778</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>11311.32011590838</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>12959.595116596969</v>
       </c>
     </row>
@@ -653,16 +660,16 @@
       <c r="B9" s="3">
         <v>463266.4</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>815.06438412110174</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>1062.9626862643181</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>11246.165964119131</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>13124.193034504549</v>
       </c>
     </row>
@@ -673,16 +680,16 @@
       <c r="B10" s="3">
         <v>463167.7</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>765.02448249305803</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>1223.7198448855561</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>11027.961980077631</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <v>13016.706307456239</v>
       </c>
     </row>
@@ -693,16 +700,16 @@
       <c r="B11" s="3">
         <v>460095.6</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>793.58384866101733</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>1219.3295306453699</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>11211.682732892899</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="5">
         <v>13224.59611219929</v>
       </c>
     </row>
@@ -713,16 +720,16 @@
       <c r="B12" s="3">
         <v>476672.6</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>861.29621463453111</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>1192.346388275726</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <v>11566.21399467895</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="5">
         <v>13619.8565975892</v>
       </c>
     </row>
@@ -733,16 +740,16 @@
       <c r="B13" s="3">
         <v>476481.7</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>958.06740321821383</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>1328.7697701716561</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>11797.75177304816</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>14084.588946438031</v>
       </c>
     </row>
@@ -753,16 +760,16 @@
       <c r="B14" s="3">
         <v>476454.3</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>961.95255872389021</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>1320.6742703340069</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <v>12565.52352869939</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="5">
         <v>14848.150357757289</v>
       </c>
     </row>
@@ -773,16 +780,16 @@
       <c r="B15" s="3">
         <v>462543.2</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>1124.6392985563291</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>1371.6200324639949</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="5">
         <v>13371.05114073669</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="5">
         <v>15867.31047175701</v>
       </c>
     </row>
